--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59939.25150293529</v>
+        <v>57237.60360040028</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>121.985161501952</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,16 +750,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>111.5456441849367</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.2944818972715</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>148.1537147652652</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>39.42691820688095</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>61.86340664463273</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.57461659509208</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>57.15248162370375</v>
       </c>
       <c r="H7" t="n">
         <v>148.5398113612452</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>24.23425454953048</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.92520745021132</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>20.90289726896412</v>
       </c>
       <c r="G9" t="n">
         <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436608</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433989</v>
+        <v>35.56536036433991</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>127.2763214587383</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
         <v>225.819171215429</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>94.67045955855895</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>46.33141542057029</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.433625596421</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.0978607009904</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>80.28322454691494</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.06637281721996</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>58.83341129825055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>48.42499264053661</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>62.6472505928857</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500078</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>34.6921136716488</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>138.7157037776611</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0.281181512641183</v>
+        <v>135.5636880601543</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>74.20064764874436</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>176.5196562849269</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.17988875728668</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669578</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>174.9868265178729</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,10 +3035,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>108.61157980775</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>112.6683130937955</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1557845699817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>261.9345988277401</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>26.1362719570589</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.0780236353765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.72099019930646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428263</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3983,10 +3983,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>226.5568791389282</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652804</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652804</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="D2" t="n">
-        <v>583.2614020227604</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062755</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="F2" t="n">
+        <v>393.8416170062753</v>
+      </c>
+      <c r="G2" t="n">
         <v>204.4218319897905</v>
       </c>
-      <c r="G2" t="n">
-        <v>15.00204697330561</v>
-      </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.7224706063607</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="C3" t="n">
-        <v>385.5051357559041</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="D3" t="n">
-        <v>236.5707260946528</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E3" t="n">
-        <v>236.5707260946528</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153776</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264287</v>
+        <v>637.4299808017076</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264287</v>
+        <v>637.4299808017076</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264287</v>
+        <v>637.4299808017076</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264287</v>
+        <v>637.4299808017076</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264287</v>
+        <v>637.4299808017076</v>
       </c>
       <c r="Y3" t="n">
-        <v>676.9378076264287</v>
+        <v>448.0101957852228</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>824.6114411906398</v>
+        <v>1073.791849324191</v>
       </c>
       <c r="C5" t="n">
-        <v>824.6114411906398</v>
+        <v>1073.791849324191</v>
       </c>
       <c r="D5" t="n">
-        <v>466.3457425838893</v>
+        <v>1073.791849324191</v>
       </c>
       <c r="E5" t="n">
-        <v>466.3457425838893</v>
+        <v>688.0035967259466</v>
       </c>
       <c r="F5" t="n">
-        <v>55.35983779428172</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4568,16 +4568,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4595,22 +4595,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>1704.678664719078</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>1704.678664719078</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W5" t="n">
-        <v>1351.910009448964</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X5" t="n">
-        <v>978.4442511878838</v>
+        <v>1463.931181300003</v>
       </c>
       <c r="Y5" t="n">
-        <v>978.4442511878838</v>
+        <v>1073.791849324191</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>630.1971149768078</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C6" t="n">
-        <v>630.1971149768078</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D6" t="n">
-        <v>481.2627053155565</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E6" t="n">
-        <v>322.025250310101</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F6" t="n">
-        <v>175.490692336986</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>1555.448468568442</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.346878701706</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V6" t="n">
-        <v>1092.194770469963</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="W6" t="n">
-        <v>837.9574137417617</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="X6" t="n">
-        <v>837.9574137417617</v>
+        <v>1135.563635735194</v>
       </c>
       <c r="Y6" t="n">
-        <v>630.1971149768078</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>490.4159969445465</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="C7" t="n">
-        <v>490.4159969445465</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="D7" t="n">
-        <v>340.2993575322107</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="E7" t="n">
-        <v>340.2993575322107</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="F7" t="n">
-        <v>193.4094100343004</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="G7" t="n">
-        <v>193.4094100343004</v>
+        <v>211.7470962355521</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470405991</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.2893470405991</v>
+        <v>269.4768756534347</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.2254659851263</v>
+        <v>877.5445949805073</v>
       </c>
       <c r="C8" t="n">
-        <v>370.2254659851263</v>
+        <v>853.0655499809816</v>
       </c>
       <c r="D8" t="n">
-        <v>370.2254659851263</v>
+        <v>853.0655499809816</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2254659851263</v>
+        <v>467.2772973827373</v>
       </c>
       <c r="F8" t="n">
-        <v>363.2799652359228</v>
+        <v>56.29139259312979</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3295769022036</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941062</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941062</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420293</v>
+        <v>156.82805594203</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002236</v>
+        <v>376.1555054002238</v>
       </c>
       <c r="L8" t="n">
-        <v>685.152362570793</v>
+        <v>685.1523625707935</v>
       </c>
       <c r="M8" t="n">
         <v>1060.640340937549</v>
@@ -4817,37 +4817,37 @@
         <v>1446.817915733707</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659509</v>
+        <v>1798.139187659508</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284334</v>
+        <v>2063.482764284332</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228516</v>
+        <v>2214.571993228515</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970531</v>
+        <v>2217.05021297053</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179435</v>
+        <v>2217.05021297053</v>
       </c>
       <c r="T8" t="n">
-        <v>2085.832821179435</v>
+        <v>2007.052422290555</v>
       </c>
       <c r="U8" t="n">
-        <v>1832.228877075741</v>
+        <v>2007.052422290555</v>
       </c>
       <c r="V8" t="n">
-        <v>1501.165989732171</v>
+        <v>2007.052422290555</v>
       </c>
       <c r="W8" t="n">
-        <v>1148.397334462057</v>
+        <v>1654.283767020441</v>
       </c>
       <c r="X8" t="n">
-        <v>774.9315762009767</v>
+        <v>1654.283767020441</v>
       </c>
       <c r="Y8" t="n">
-        <v>756.8253060492481</v>
+        <v>1264.144435044629</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>955.3868352278099</v>
+        <v>333.4814677084852</v>
       </c>
       <c r="C9" t="n">
-        <v>780.9338059466829</v>
+        <v>333.4814677084852</v>
       </c>
       <c r="D9" t="n">
-        <v>780.9338059466829</v>
+        <v>333.4814677084852</v>
       </c>
       <c r="E9" t="n">
-        <v>780.9338059466829</v>
+        <v>333.4814677084852</v>
       </c>
       <c r="F9" t="n">
-        <v>634.3992479735679</v>
+        <v>312.3674300630669</v>
       </c>
       <c r="G9" t="n">
-        <v>497.5447914009277</v>
+        <v>175.5129734904268</v>
       </c>
       <c r="H9" t="n">
-        <v>497.5447914009277</v>
+        <v>80.26561068803676</v>
       </c>
       <c r="I9" t="n">
-        <v>461.6201849723016</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="J9" t="n">
-        <v>509.798855384026</v>
+        <v>92.51967467113496</v>
       </c>
       <c r="K9" t="n">
-        <v>670.2987016283071</v>
+        <v>253.0195209154159</v>
       </c>
       <c r="L9" t="n">
-        <v>932.433092970145</v>
+        <v>515.1539122572538</v>
       </c>
       <c r="M9" t="n">
-        <v>1257.688431757864</v>
+        <v>840.409251044973</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.960956451576</v>
+        <v>1188.681775738684</v>
       </c>
       <c r="O9" t="n">
-        <v>1902.342480787104</v>
+        <v>1485.063300074212</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.881717279834</v>
+        <v>1703.602536566942</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.050212970531</v>
+        <v>1799.771032257639</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.050212970531</v>
+        <v>1799.771032257639</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.050212970531</v>
+        <v>1661.206416030642</v>
       </c>
       <c r="T9" t="n">
-        <v>2088.488272103119</v>
+        <v>1466.582904583794</v>
       </c>
       <c r="U9" t="n">
-        <v>1860.388099158241</v>
+        <v>1238.482731638916</v>
       </c>
       <c r="V9" t="n">
-        <v>1625.235990926498</v>
+        <v>1003.330623407174</v>
       </c>
       <c r="W9" t="n">
-        <v>1370.998634198297</v>
+        <v>749.093266678972</v>
       </c>
       <c r="X9" t="n">
-        <v>1163.147133992764</v>
+        <v>541.2417664734392</v>
       </c>
       <c r="Y9" t="n">
-        <v>955.3868352278099</v>
+        <v>333.4814677084852</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.082504415956</v>
+        <v>260.0765967030451</v>
       </c>
       <c r="C10" t="n">
-        <v>308.082504415956</v>
+        <v>91.14041377513817</v>
       </c>
       <c r="D10" t="n">
-        <v>212.4557775891288</v>
+        <v>91.14041377513817</v>
       </c>
       <c r="E10" t="n">
-        <v>212.4557775891288</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="F10" t="n">
-        <v>212.4557775891288</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941062</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="K10" t="n">
-        <v>95.7447083801674</v>
+        <v>95.74470838016728</v>
       </c>
       <c r="L10" t="n">
-        <v>191.429549681036</v>
+        <v>191.4295496810358</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422657</v>
+        <v>295.5740818422655</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091244</v>
+        <v>405.0998157091241</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712725</v>
+        <v>485.951469271272</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139734</v>
+        <v>536.0720553139728</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139734</v>
+        <v>514.7610849089319</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139734</v>
+        <v>514.7610849089319</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139734</v>
+        <v>514.7610849089319</v>
       </c>
       <c r="T10" t="n">
-        <v>536.0720553139734</v>
+        <v>514.7610849089319</v>
       </c>
       <c r="U10" t="n">
-        <v>536.0720553139734</v>
+        <v>514.7610849089319</v>
       </c>
       <c r="V10" t="n">
-        <v>536.0720553139734</v>
+        <v>260.0765967030451</v>
       </c>
       <c r="W10" t="n">
-        <v>536.0720553139734</v>
+        <v>260.0765967030451</v>
       </c>
       <c r="X10" t="n">
-        <v>308.082504415956</v>
+        <v>260.0765967030451</v>
       </c>
       <c r="Y10" t="n">
-        <v>308.082504415956</v>
+        <v>260.0765967030451</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1947.664647156213</v>
+        <v>1738.984271012043</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.702130215801</v>
+        <v>1370.021754071632</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.436431609051</v>
+        <v>1288.927587862627</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>903.1393352643827</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194429</v>
+        <v>492.1534304747752</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
@@ -5057,34 +5057,34 @@
         <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3852.573828303896</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3648.59522188526</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3395.101280006789</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="V11" t="n">
-        <v>3064.038392663218</v>
+        <v>3241.957856583171</v>
       </c>
       <c r="W11" t="n">
-        <v>2711.269737393104</v>
+        <v>2889.189201313056</v>
       </c>
       <c r="X11" t="n">
-        <v>2337.803979132024</v>
+        <v>2515.723443051977</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.664647156213</v>
+        <v>2125.584111076165</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>503.2284887929952</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599343</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2014.935408783256</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>519.4163307512474</v>
+        <v>740.3076633168068</v>
       </c>
       <c r="C13" t="n">
-        <v>459.9886425711964</v>
+        <v>571.3714803889</v>
       </c>
       <c r="D13" t="n">
-        <v>459.9886425711964</v>
+        <v>421.2548409765641</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711964</v>
+        <v>273.3417473941711</v>
       </c>
       <c r="F13" t="n">
-        <v>313.098695073286</v>
+        <v>126.4517998962607</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>126.4517998962607</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>126.4517998962607</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344807</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
         <v>1949.247121276104</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>1949.247121276104</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659995</v>
+        <v>1660.155428225554</v>
       </c>
       <c r="V13" t="n">
-        <v>1439.264095659995</v>
+        <v>1660.155428225554</v>
       </c>
       <c r="W13" t="n">
-        <v>1149.846925623035</v>
+        <v>1370.738258188594</v>
       </c>
       <c r="X13" t="n">
-        <v>921.8573747250173</v>
+        <v>1142.748707290577</v>
       </c>
       <c r="Y13" t="n">
-        <v>701.0647955814871</v>
+        <v>921.9561281470466</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,22 +5361,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179091</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900022</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>593.6115863900022</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>445.6984928076091</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>298.8085453096987</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172275</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135314</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237297</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093767</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5543,19 +5543,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.580456911439</v>
+        <v>784.5811134804958</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2009.464245195834</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989947</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.373036054969</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.580456911439</v>
+        <v>966.2295783107355</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,22 +5750,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>847.6442739835328</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.222762528164</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1296.42640402508</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>847.6442739835328</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557278</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278209</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>408.9258559154852</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6145,7 +6145,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038343</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859675</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6233,43 +6233,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836012</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556944</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D28" t="n">
-        <v>565.7099969556944</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>417.7969033733012</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>417.7969033733012</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138412</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.294644713841</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192497</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,16 +6546,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536377</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>705.932442825731</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.8686257536377</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536382</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1867.752414038033</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1613.067925832146</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W34" t="n">
-        <v>1323.650755795186</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.661204897168</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.8686257536382</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400714</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121646</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121646</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>197.0043242297716</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>197.0043242297716</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138413</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703112</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.868625753638</v>
+        <v>983.3556038098238</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257311</v>
+        <v>814.4194208819169</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>664.3027814695812</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310022</v>
+        <v>516.3896878871881</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892779</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041578</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7500,10 +7500,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057246</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778177</v>
+        <v>344.9174178121653</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654819</v>
+        <v>344.9174178121653</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830888</v>
+        <v>344.9174178121653</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121653</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.502065570312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.1291986799073</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799073</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675715</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.777663510147</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>274.399817073768</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.81873317893215</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>108.4134098003773</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>41.82853125873715</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182143</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.8768876993831</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891661</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>251.4923607175953</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>86.99395161137603</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>285.903292876603</v>
+        <v>150.6207863290898</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>66.34424953498217</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>63.36835372228634</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>111.1976478713712</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>177.5728945814942</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>63.36835372228685</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>24.5883995088509</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>114.158440889165</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.506629716718275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.11098998263084</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194124</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.62759525031592</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166185</v>
+        <v>311350.4288166184</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="N2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="O2" t="n">
-        <v>343037.3048682525</v>
-      </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>392510.2442861775</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264251</v>
+        <v>12262.8560326421</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674501</v>
+        <v>395943.95676745</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704287</v>
+        <v>189308.2687704292</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854457</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487785</v>
+        <v>91259.95686487781</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949708</v>
+        <v>3074.447349949671</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931119</v>
+        <v>103409.2608931118</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607419</v>
+        <v>170817.882760742</v>
       </c>
       <c r="E4" t="n">
         <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687971</v>
-      </c>
       <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687964</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687967</v>
-      </c>
       <c r="O4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687964</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404167</v>
+        <v>86153.75444404164</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577936.5155742685</v>
+        <v>-577936.5155742684</v>
       </c>
       <c r="C6" t="n">
         <v>-302969.5640386268</v>
       </c>
       <c r="D6" t="n">
-        <v>79708.25895489453</v>
+        <v>79708.25895489479</v>
       </c>
       <c r="E6" t="n">
-        <v>-185062.2344654504</v>
+        <v>-185283.3657794251</v>
       </c>
       <c r="F6" t="n">
-        <v>37169.86626703733</v>
+        <v>37135.12834160114</v>
       </c>
       <c r="G6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120303</v>
       </c>
       <c r="H6" t="n">
-        <v>226478.135037466</v>
+        <v>226443.3971120301</v>
       </c>
       <c r="I6" t="n">
-        <v>226478.135037466</v>
+        <v>226443.3971120301</v>
       </c>
       <c r="J6" t="n">
-        <v>177413.1903089216</v>
+        <v>177378.4523834855</v>
       </c>
       <c r="K6" t="n">
-        <v>135218.1781725879</v>
+        <v>135183.4402471524</v>
       </c>
       <c r="L6" t="n">
-        <v>223403.6876875164</v>
+        <v>223368.9497620806</v>
       </c>
       <c r="M6" t="n">
-        <v>123068.8741443541</v>
+        <v>123034.1362189183</v>
       </c>
       <c r="N6" t="n">
-        <v>176638.5609054423</v>
+        <v>176603.8229800065</v>
       </c>
       <c r="O6" t="n">
-        <v>226478.1350374657</v>
+        <v>226443.3971120302</v>
       </c>
       <c r="P6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120301</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.312259361854401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.312259361854401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.312259361854401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.312259361854401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573211</v>
+        <v>863.6234498573208</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426327</v>
+        <v>554.2625532426324</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.312259361854401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>9.91278531963701</v>
+        <v>9.912785319636669</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576295</v>
+        <v>338.6177873576294</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>354.5893695598433</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.14759651646906</v>
+      </c>
+      <c r="E4" t="n">
+        <v>414.9582707063764</v>
+      </c>
+      <c r="F4" t="n">
+        <v>203.4874641506395</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="C4" t="n">
-        <v>354.5893695598432</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.14759651646943</v>
-      </c>
-      <c r="E4" t="n">
-        <v>414.9582707063765</v>
-      </c>
-      <c r="F4" t="n">
-        <v>203.4874641506391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663196</v>
-      </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646921</v>
+        <v>12.14759651646906</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063767</v>
+        <v>414.9582707063764</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.312259361854401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646943</v>
+        <v>12.14759651646906</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063765</v>
+        <v>414.9582707063764</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>189.5105044445882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>241.7035085656168</v>
       </c>
       <c r="G2" t="n">
         <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>50.7233374863637</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,16 +27470,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>83.86395360706456</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716257</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976603</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.439359766209</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>258.7223309764462</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>153.3363001038828</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>143.8192891326716</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.2573635868452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>109.299019487228</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>341.0386372214771</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151394</v>
+        <v>76.62727429151397</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>368.3127312058423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,13 +27941,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>124.1663151244198</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436606</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282959</v>
+        <v>30.34503645282963</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>65.40095487364107</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94501345965341</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.1025472259989</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.433625596421</v>
       </c>
       <c r="H10" t="n">
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332422</v>
+        <v>16.89051046332426</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099037</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313611</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
         <v>196.8761692930955</v>
@@ -28068,13 +28068,13 @@
         <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29755,10 +29755,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30703,10 +30703,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753047</v>
+        <v>3.471853064753046</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940215</v>
+        <v>35.55611519940214</v>
       </c>
       <c r="I8" t="n">
-        <v>133.848615278892</v>
+        <v>133.8486152788919</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545842</v>
+        <v>294.6691890545841</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855808</v>
+        <v>441.6327292855806</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160169</v>
+        <v>547.8844525160167</v>
       </c>
       <c r="M8" t="n">
-        <v>609.627019456319</v>
+        <v>609.6270194563187</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765486</v>
+        <v>619.4914219765484</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639104</v>
+        <v>584.9681830639101</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278195</v>
+        <v>499.2568105278193</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463509</v>
+        <v>374.9210726463508</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787938</v>
+        <v>218.0887900787937</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306015</v>
+        <v>79.1148517130601</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095647</v>
+        <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802437</v>
+        <v>0.2777482451802436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>17.94055506213039</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566011</v>
+        <v>63.95701963566009</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148732</v>
+        <v>175.5029503148731</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867641</v>
+        <v>299.962495786764</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564782</v>
+        <v>403.336593256478</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722399</v>
+        <v>470.6747801722398</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668801</v>
+        <v>483.1321410668799</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510387</v>
+        <v>441.9715215510385</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423401</v>
+        <v>354.72111094234</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230894</v>
+        <v>237.1216687230893</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111344</v>
+        <v>115.3344675111343</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911087</v>
+        <v>34.50420103911086</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442244</v>
+        <v>7.487452362442241</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458474</v>
+        <v>0.1222108655458473</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037792</v>
+        <v>1.557353762037791</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066329</v>
+        <v>13.84629072066328</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291834</v>
+        <v>46.83387495291832</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760719</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258453</v>
+        <v>180.9361916258452</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306005</v>
+        <v>231.5360311306004</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801604</v>
+        <v>244.1222810801603</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762016</v>
+        <v>238.3175988762015</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833055</v>
+        <v>220.1248753833054</v>
       </c>
       <c r="P10" t="n">
         <v>188.3548586377343</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284555</v>
+        <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580834</v>
+        <v>70.02428824580831</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387679</v>
+        <v>27.14042874387678</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343292</v>
+        <v>6.654147892343289</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842512</v>
+        <v>0.08494656883842508</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>171.3336650206114</v>
       </c>
       <c r="M12" t="n">
-        <v>250.1980451314294</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32081,10 +32081,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>687.544841654958</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.8462560123214</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33995,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278979</v>
+        <v>113.6232845278978</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406002</v>
+        <v>221.5428782406</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460297</v>
+        <v>312.1180375460295</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290463</v>
+        <v>379.280786229046</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799577</v>
+        <v>390.0783583799575</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422236</v>
+        <v>354.8699716422234</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725499</v>
+        <v>268.0238147725498</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719014</v>
+        <v>152.6153827719013</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661654</v>
+        <v>2.503252264661569</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820648</v>
+        <v>48.66532364820642</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124051</v>
+        <v>162.121056812405</v>
       </c>
       <c r="L9" t="n">
-        <v>264.782213476604</v>
+        <v>264.7822134766038</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502216</v>
+        <v>328.5407462502214</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835468</v>
+        <v>351.7904289835466</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065942</v>
+        <v>299.3752771065941</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280098</v>
+        <v>220.7467035280097</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1398946370679</v>
+        <v>97.13989463706778</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530987</v>
+        <v>51.92293345530979</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936221</v>
+        <v>96.65135484936212</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325554</v>
+        <v>105.1964971325553</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109684</v>
+        <v>110.6320544109683</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146268</v>
+        <v>81.66833693146256</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858672</v>
+        <v>50.62685458858664</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>32.77928524073725</v>
       </c>
       <c r="M12" t="n">
-        <v>108.0640112094111</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655348</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2031295716247</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.86448192629984</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36996,10 +36996,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37470,10 +37470,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
